--- a/2023/netherlands_eredivisie_2023-2024.xlsx
+++ b/2023/netherlands_eredivisie_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V42"/>
+  <dimension ref="A1:V43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4069,22 +4069,22 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Excelsior</t>
+          <t>Twente</t>
         </is>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Almere City</t>
+          <t>Ajax</t>
         </is>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J40" t="n">
-        <v>1.93</v>
+        <v>3.43</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
@@ -4092,7 +4092,7 @@
         </is>
       </c>
       <c r="L40" t="n">
-        <v>2.04</v>
+        <v>2.47</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
@@ -4100,7 +4100,7 @@
         </is>
       </c>
       <c r="N40" t="n">
-        <v>3.96</v>
+        <v>4.07</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
@@ -4108,7 +4108,7 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>3.95</v>
+        <v>3.6</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
@@ -4116,7 +4116,7 @@
         </is>
       </c>
       <c r="R40" t="n">
-        <v>3.8</v>
+        <v>2.02</v>
       </c>
       <c r="S40" t="inlineStr">
         <is>
@@ -4124,7 +4124,7 @@
         </is>
       </c>
       <c r="T40" t="n">
-        <v>3.49</v>
+        <v>2.9</v>
       </c>
       <c r="U40" t="inlineStr">
         <is>
@@ -4133,7 +4133,7 @@
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/netherlands/eredivisie/excelsior-almere-city/fiHLuLx2/</t>
+          <t>https://www.betexplorer.com/football/netherlands/eredivisie/twente-ajax/dde444F2/</t>
         </is>
       </c>
     </row>
@@ -4161,22 +4161,22 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Twente</t>
+          <t>Excelsior</t>
         </is>
       </c>
       <c r="G41" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Ajax</t>
+          <t>Almere City</t>
         </is>
       </c>
       <c r="I41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>3.43</v>
+        <v>1.93</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -4184,7 +4184,7 @@
         </is>
       </c>
       <c r="L41" t="n">
-        <v>2.47</v>
+        <v>2.04</v>
       </c>
       <c r="M41" t="inlineStr">
         <is>
@@ -4192,7 +4192,7 @@
         </is>
       </c>
       <c r="N41" t="n">
-        <v>4.07</v>
+        <v>3.96</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
@@ -4200,7 +4200,7 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>3.6</v>
+        <v>3.95</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
@@ -4208,7 +4208,7 @@
         </is>
       </c>
       <c r="R41" t="n">
-        <v>2.02</v>
+        <v>3.8</v>
       </c>
       <c r="S41" t="inlineStr">
         <is>
@@ -4216,7 +4216,7 @@
         </is>
       </c>
       <c r="T41" t="n">
-        <v>2.9</v>
+        <v>3.49</v>
       </c>
       <c r="U41" t="inlineStr">
         <is>
@@ -4225,7 +4225,7 @@
       </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/netherlands/eredivisie/twente-ajax/dde444F2/</t>
+          <t>https://www.betexplorer.com/football/netherlands/eredivisie/excelsior-almere-city/fiHLuLx2/</t>
         </is>
       </c>
     </row>
@@ -4318,6 +4318,98 @@
       <c r="V42" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/netherlands/eredivisie/az-alkmaar-sparta-rotterdam/zmf83OU8/</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>netherlands</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>eredivisie</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E43" s="2" t="n">
+        <v>45191.83333333334</v>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>G.A. Eagles</t>
+        </is>
+      </c>
+      <c r="G43" t="n">
+        <v>3</v>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>Sittard</t>
+        </is>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>17/09/2023 11:43</t>
+        </is>
+      </c>
+      <c r="L43" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>22/09/2023 19:54</t>
+        </is>
+      </c>
+      <c r="N43" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>17/09/2023 11:43</t>
+        </is>
+      </c>
+      <c r="P43" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="Q43" t="inlineStr">
+        <is>
+          <t>22/09/2023 19:59</t>
+        </is>
+      </c>
+      <c r="R43" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="S43" t="inlineStr">
+        <is>
+          <t>17/09/2023 11:43</t>
+        </is>
+      </c>
+      <c r="T43" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="U43" t="inlineStr">
+        <is>
+          <t>22/09/2023 19:54</t>
+        </is>
+      </c>
+      <c r="V43" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/netherlands/eredivisie/g-a-eagles-sittard/rDgC2rpF/</t>
         </is>
       </c>
     </row>

--- a/2023/netherlands_eredivisie_2023-2024.xlsx
+++ b/2023/netherlands_eredivisie_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V43"/>
+  <dimension ref="A1:V50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1125,22 +1125,22 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>AZ Alkmaar</t>
+          <t>Feyenoord</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>G.A. Eagles</t>
+          <t>Sittard</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>1.37</v>
+        <v>1.22</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
@@ -1148,15 +1148,15 @@
         </is>
       </c>
       <c r="L8" t="n">
-        <v>1.54</v>
+        <v>1.19</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>13/08/2023 14:27</t>
+          <t>13/08/2023 14:25</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>5.51</v>
+        <v>7.61</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -1164,15 +1164,15 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>4.41</v>
+        <v>7.38</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>13/08/2023 14:26</t>
+          <t>13/08/2023 14:29</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>7.89</v>
+        <v>12.86</v>
       </c>
       <c r="S8" t="inlineStr">
         <is>
@@ -1180,16 +1180,16 @@
         </is>
       </c>
       <c r="T8" t="n">
-        <v>6.35</v>
+        <v>16.76</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>13/08/2023 14:26</t>
+          <t>13/08/2023 14:29</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/netherlands/eredivisie/az-alkmaar-g-a-eagles/SrIpNFQ5/</t>
+          <t>https://www.betexplorer.com/football/netherlands/eredivisie/feyenoord-sittard/6ZGlMZuC/</t>
         </is>
       </c>
     </row>
@@ -1217,22 +1217,22 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Feyenoord</t>
+          <t>AZ Alkmaar</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Sittard</t>
+          <t>G.A. Eagles</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>1.22</v>
+        <v>1.37</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
@@ -1240,15 +1240,15 @@
         </is>
       </c>
       <c r="L9" t="n">
-        <v>1.19</v>
+        <v>1.54</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>13/08/2023 14:25</t>
+          <t>13/08/2023 14:27</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>7.61</v>
+        <v>5.51</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1256,15 +1256,15 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>7.38</v>
+        <v>4.41</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>13/08/2023 14:29</t>
+          <t>13/08/2023 14:26</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>12.86</v>
+        <v>7.89</v>
       </c>
       <c r="S9" t="inlineStr">
         <is>
@@ -1272,16 +1272,16 @@
         </is>
       </c>
       <c r="T9" t="n">
-        <v>16.76</v>
+        <v>6.35</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>13/08/2023 14:29</t>
+          <t>13/08/2023 14:26</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/netherlands/eredivisie/feyenoord-sittard/6ZGlMZuC/</t>
+          <t>https://www.betexplorer.com/football/netherlands/eredivisie/az-alkmaar-g-a-eagles/SrIpNFQ5/</t>
         </is>
       </c>
     </row>
@@ -1953,71 +1953,71 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Sparta Rotterdam</t>
+          <t>Twente</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Feyenoord</t>
+          <t>Zwolle</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J17" t="n">
-        <v>5</v>
+        <v>1.35</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>13/08/2023 14:42</t>
+          <t>13/08/2023 17:12</t>
         </is>
       </c>
       <c r="L17" t="n">
-        <v>4.94</v>
+        <v>1.44</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
+          <t>20/08/2023 14:21</t>
+        </is>
+      </c>
+      <c r="N17" t="n">
+        <v>5.56</v>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>13/08/2023 17:12</t>
+        </is>
+      </c>
+      <c r="P17" t="n">
+        <v>5.21</v>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
           <t>20/08/2023 14:28</t>
         </is>
       </c>
-      <c r="N17" t="n">
-        <v>4.52</v>
-      </c>
-      <c r="O17" t="inlineStr">
-        <is>
-          <t>13/08/2023 14:42</t>
-        </is>
-      </c>
-      <c r="P17" t="n">
-        <v>4.35</v>
-      </c>
-      <c r="Q17" t="inlineStr">
+      <c r="R17" t="n">
+        <v>8.789999999999999</v>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>13/08/2023 17:12</t>
+        </is>
+      </c>
+      <c r="T17" t="n">
+        <v>6.95</v>
+      </c>
+      <c r="U17" t="inlineStr">
         <is>
           <t>20/08/2023 14:29</t>
         </is>
       </c>
-      <c r="R17" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="S17" t="inlineStr">
-        <is>
-          <t>13/08/2023 14:42</t>
-        </is>
-      </c>
-      <c r="T17" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="U17" t="inlineStr">
-        <is>
-          <t>20/08/2023 14:28</t>
-        </is>
-      </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/netherlands/eredivisie/sparta-rotterdam-feyenoord/21WSZhAB/</t>
+          <t>https://www.betexplorer.com/football/netherlands/eredivisie/twente-zwolle/KxsOzZf5/</t>
         </is>
       </c>
     </row>
@@ -2045,71 +2045,71 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Twente</t>
+          <t>Sparta Rotterdam</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Zwolle</t>
+          <t>Feyenoord</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J18" t="n">
-        <v>1.35</v>
+        <v>5</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>13/08/2023 17:12</t>
+          <t>13/08/2023 14:42</t>
         </is>
       </c>
       <c r="L18" t="n">
-        <v>1.44</v>
+        <v>4.94</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>20/08/2023 14:21</t>
+          <t>20/08/2023 14:28</t>
         </is>
       </c>
       <c r="N18" t="n">
-        <v>5.56</v>
+        <v>4.52</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>13/08/2023 17:12</t>
+          <t>13/08/2023 14:42</t>
         </is>
       </c>
       <c r="P18" t="n">
-        <v>5.21</v>
+        <v>4.35</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
+          <t>20/08/2023 14:29</t>
+        </is>
+      </c>
+      <c r="R18" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>13/08/2023 14:42</t>
+        </is>
+      </c>
+      <c r="T18" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="U18" t="inlineStr">
+        <is>
           <t>20/08/2023 14:28</t>
         </is>
       </c>
-      <c r="R18" t="n">
-        <v>8.789999999999999</v>
-      </c>
-      <c r="S18" t="inlineStr">
-        <is>
-          <t>13/08/2023 17:12</t>
-        </is>
-      </c>
-      <c r="T18" t="n">
-        <v>6.95</v>
-      </c>
-      <c r="U18" t="inlineStr">
-        <is>
-          <t>20/08/2023 14:29</t>
-        </is>
-      </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/netherlands/eredivisie/twente-zwolle/KxsOzZf5/</t>
+          <t>https://www.betexplorer.com/football/netherlands/eredivisie/sparta-rotterdam-feyenoord/21WSZhAB/</t>
         </is>
       </c>
     </row>
@@ -4069,22 +4069,22 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Twente</t>
+          <t>Excelsior</t>
         </is>
       </c>
       <c r="G40" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Ajax</t>
+          <t>Almere City</t>
         </is>
       </c>
       <c r="I40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>3.43</v>
+        <v>1.93</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
@@ -4092,7 +4092,7 @@
         </is>
       </c>
       <c r="L40" t="n">
-        <v>2.47</v>
+        <v>2.04</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
@@ -4100,7 +4100,7 @@
         </is>
       </c>
       <c r="N40" t="n">
-        <v>4.07</v>
+        <v>3.96</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
@@ -4108,7 +4108,7 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>3.6</v>
+        <v>3.95</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
@@ -4116,7 +4116,7 @@
         </is>
       </c>
       <c r="R40" t="n">
-        <v>2.02</v>
+        <v>3.8</v>
       </c>
       <c r="S40" t="inlineStr">
         <is>
@@ -4124,7 +4124,7 @@
         </is>
       </c>
       <c r="T40" t="n">
-        <v>2.9</v>
+        <v>3.49</v>
       </c>
       <c r="U40" t="inlineStr">
         <is>
@@ -4133,7 +4133,7 @@
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/netherlands/eredivisie/twente-ajax/dde444F2/</t>
+          <t>https://www.betexplorer.com/football/netherlands/eredivisie/excelsior-almere-city/fiHLuLx2/</t>
         </is>
       </c>
     </row>
@@ -4161,22 +4161,22 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Excelsior</t>
+          <t>Twente</t>
         </is>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Almere City</t>
+          <t>Ajax</t>
         </is>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J41" t="n">
-        <v>1.93</v>
+        <v>3.43</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -4184,7 +4184,7 @@
         </is>
       </c>
       <c r="L41" t="n">
-        <v>2.04</v>
+        <v>2.47</v>
       </c>
       <c r="M41" t="inlineStr">
         <is>
@@ -4192,7 +4192,7 @@
         </is>
       </c>
       <c r="N41" t="n">
-        <v>3.96</v>
+        <v>4.07</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
@@ -4200,7 +4200,7 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>3.95</v>
+        <v>3.6</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
@@ -4208,7 +4208,7 @@
         </is>
       </c>
       <c r="R41" t="n">
-        <v>3.8</v>
+        <v>2.02</v>
       </c>
       <c r="S41" t="inlineStr">
         <is>
@@ -4216,7 +4216,7 @@
         </is>
       </c>
       <c r="T41" t="n">
-        <v>3.49</v>
+        <v>2.9</v>
       </c>
       <c r="U41" t="inlineStr">
         <is>
@@ -4225,7 +4225,7 @@
       </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/netherlands/eredivisie/excelsior-almere-city/fiHLuLx2/</t>
+          <t>https://www.betexplorer.com/football/netherlands/eredivisie/twente-ajax/dde444F2/</t>
         </is>
       </c>
     </row>
@@ -4410,6 +4410,650 @@
       <c r="V43" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/netherlands/eredivisie/g-a-eagles-sittard/rDgC2rpF/</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>netherlands</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>eredivisie</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E44" s="2" t="n">
+        <v>45192.6875</v>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>FC Volendam</t>
+        </is>
+      </c>
+      <c r="G44" t="n">
+        <v>2</v>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>Heracles</t>
+        </is>
+      </c>
+      <c r="I44" t="n">
+        <v>2</v>
+      </c>
+      <c r="J44" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>16/09/2023 20:12</t>
+        </is>
+      </c>
+      <c r="L44" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>23/09/2023 16:28</t>
+        </is>
+      </c>
+      <c r="N44" t="n">
+        <v>4.21</v>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>16/09/2023 20:12</t>
+        </is>
+      </c>
+      <c r="P44" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="Q44" t="inlineStr">
+        <is>
+          <t>23/09/2023 15:59</t>
+        </is>
+      </c>
+      <c r="R44" t="n">
+        <v>4</v>
+      </c>
+      <c r="S44" t="inlineStr">
+        <is>
+          <t>16/09/2023 20:12</t>
+        </is>
+      </c>
+      <c r="T44" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="U44" t="inlineStr">
+        <is>
+          <t>23/09/2023 16:28</t>
+        </is>
+      </c>
+      <c r="V44" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/netherlands/eredivisie/fc-volendam-heracles/M3hG12aL/</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>netherlands</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>eredivisie</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E45" s="2" t="n">
+        <v>45192.78125</v>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Nijmegen</t>
+        </is>
+      </c>
+      <c r="G45" t="n">
+        <v>3</v>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>Utrecht</t>
+        </is>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>16/09/2023 20:12</t>
+        </is>
+      </c>
+      <c r="L45" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>23/09/2023 18:40</t>
+        </is>
+      </c>
+      <c r="N45" t="n">
+        <v>3.61</v>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>16/09/2023 20:12</t>
+        </is>
+      </c>
+      <c r="P45" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="Q45" t="inlineStr">
+        <is>
+          <t>23/09/2023 18:40</t>
+        </is>
+      </c>
+      <c r="R45" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="S45" t="inlineStr">
+        <is>
+          <t>16/09/2023 20:12</t>
+        </is>
+      </c>
+      <c r="T45" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="U45" t="inlineStr">
+        <is>
+          <t>23/09/2023 18:40</t>
+        </is>
+      </c>
+      <c r="V45" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/netherlands/eredivisie/nijmegen-utrecht/4SsL0MER/</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>netherlands</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>eredivisie</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E46" s="2" t="n">
+        <v>45192.83333333334</v>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Almere City</t>
+        </is>
+      </c>
+      <c r="G46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>PSV</t>
+        </is>
+      </c>
+      <c r="I46" t="n">
+        <v>4</v>
+      </c>
+      <c r="J46" t="n">
+        <v>7.36</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>17/09/2023 13:43</t>
+        </is>
+      </c>
+      <c r="L46" t="n">
+        <v>13.46</v>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>23/09/2023 19:59</t>
+        </is>
+      </c>
+      <c r="N46" t="n">
+        <v>5.65</v>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>17/09/2023 13:43</t>
+        </is>
+      </c>
+      <c r="P46" t="n">
+        <v>7.28</v>
+      </c>
+      <c r="Q46" t="inlineStr">
+        <is>
+          <t>23/09/2023 19:59</t>
+        </is>
+      </c>
+      <c r="R46" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="S46" t="inlineStr">
+        <is>
+          <t>17/09/2023 13:43</t>
+        </is>
+      </c>
+      <c r="T46" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="U46" t="inlineStr">
+        <is>
+          <t>23/09/2023 19:58</t>
+        </is>
+      </c>
+      <c r="V46" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/netherlands/eredivisie/almere-city-psv/tlZndtNr/</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>netherlands</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>eredivisie</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E47" s="2" t="n">
+        <v>45192.875</v>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Heerenveen</t>
+        </is>
+      </c>
+      <c r="G47" t="n">
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>Excelsior</t>
+        </is>
+      </c>
+      <c r="I47" t="n">
+        <v>3</v>
+      </c>
+      <c r="J47" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>17/09/2023 13:43</t>
+        </is>
+      </c>
+      <c r="L47" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>23/09/2023 20:59</t>
+        </is>
+      </c>
+      <c r="N47" t="n">
+        <v>4.58</v>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>17/09/2023 13:43</t>
+        </is>
+      </c>
+      <c r="P47" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="Q47" t="inlineStr">
+        <is>
+          <t>23/09/2023 20:59</t>
+        </is>
+      </c>
+      <c r="R47" t="n">
+        <v>5.28</v>
+      </c>
+      <c r="S47" t="inlineStr">
+        <is>
+          <t>17/09/2023 13:43</t>
+        </is>
+      </c>
+      <c r="T47" t="n">
+        <v>4.95</v>
+      </c>
+      <c r="U47" t="inlineStr">
+        <is>
+          <t>23/09/2023 20:59</t>
+        </is>
+      </c>
+      <c r="V47" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/netherlands/eredivisie/heerenveen-excelsior/zBYje0xk/</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>netherlands</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>eredivisie</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E48" s="2" t="n">
+        <v>45193.51041666666</v>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Sparta Rotterdam</t>
+        </is>
+      </c>
+      <c r="G48" t="n">
+        <v>1</v>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Vitesse</t>
+        </is>
+      </c>
+      <c r="I48" t="n">
+        <v>0</v>
+      </c>
+      <c r="J48" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>17/09/2023 16:13</t>
+        </is>
+      </c>
+      <c r="L48" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>24/09/2023 12:08</t>
+        </is>
+      </c>
+      <c r="N48" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>17/09/2023 16:13</t>
+        </is>
+      </c>
+      <c r="P48" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="Q48" t="inlineStr">
+        <is>
+          <t>24/09/2023 12:14</t>
+        </is>
+      </c>
+      <c r="R48" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="S48" t="inlineStr">
+        <is>
+          <t>17/09/2023 16:13</t>
+        </is>
+      </c>
+      <c r="T48" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="U48" t="inlineStr">
+        <is>
+          <t>24/09/2023 12:14</t>
+        </is>
+      </c>
+      <c r="V48" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/netherlands/eredivisie/sparta-rotterdam-vitesse/E1XffKie/</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>netherlands</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>eredivisie</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E49" s="2" t="n">
+        <v>45193.69791666666</v>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Waalwijk</t>
+        </is>
+      </c>
+      <c r="G49" t="n">
+        <v>1</v>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Twente</t>
+        </is>
+      </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>4.49</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>17/09/2023 13:43</t>
+        </is>
+      </c>
+      <c r="L49" t="n">
+        <v>6.03</v>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>24/09/2023 16:43</t>
+        </is>
+      </c>
+      <c r="N49" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>17/09/2023 13:43</t>
+        </is>
+      </c>
+      <c r="P49" t="n">
+        <v>4.72</v>
+      </c>
+      <c r="Q49" t="inlineStr">
+        <is>
+          <t>24/09/2023 16:44</t>
+        </is>
+      </c>
+      <c r="R49" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="S49" t="inlineStr">
+        <is>
+          <t>17/09/2023 13:43</t>
+        </is>
+      </c>
+      <c r="T49" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="U49" t="inlineStr">
+        <is>
+          <t>24/09/2023 16:38</t>
+        </is>
+      </c>
+      <c r="V49" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/netherlands/eredivisie/waalwijk-twente/OWEoHsa8/</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>netherlands</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>eredivisie</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E50" s="2" t="n">
+        <v>45193.69791666666</v>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Zwolle</t>
+        </is>
+      </c>
+      <c r="G50" t="n">
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>AZ Alkmaar</t>
+        </is>
+      </c>
+      <c r="I50" t="n">
+        <v>3</v>
+      </c>
+      <c r="J50" t="n">
+        <v>4.72</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>17/09/2023 16:13</t>
+        </is>
+      </c>
+      <c r="L50" t="n">
+        <v>4.63</v>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>24/09/2023 16:39</t>
+        </is>
+      </c>
+      <c r="N50" t="n">
+        <v>4.32</v>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>17/09/2023 16:13</t>
+        </is>
+      </c>
+      <c r="P50" t="n">
+        <v>4.03</v>
+      </c>
+      <c r="Q50" t="inlineStr">
+        <is>
+          <t>24/09/2023 16:39</t>
+        </is>
+      </c>
+      <c r="R50" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="S50" t="inlineStr">
+        <is>
+          <t>17/09/2023 16:13</t>
+        </is>
+      </c>
+      <c r="T50" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="U50" t="inlineStr">
+        <is>
+          <t>24/09/2023 16:39</t>
+        </is>
+      </c>
+      <c r="V50" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/netherlands/eredivisie/zwolle-az-alkmaar/ATQ3hbM7/</t>
         </is>
       </c>
     </row>

--- a/2023/netherlands_eredivisie_2023-2024.xlsx
+++ b/2023/netherlands_eredivisie_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V50"/>
+  <dimension ref="A1:V53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5057,6 +5057,282 @@
         </is>
       </c>
     </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>netherlands</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>eredivisie</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E51" s="2" t="n">
+        <v>45196.58333333334</v>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Ajax</t>
+        </is>
+      </c>
+      <c r="G51" t="n">
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>Feyenoord</t>
+        </is>
+      </c>
+      <c r="I51" t="n">
+        <v>4</v>
+      </c>
+      <c r="J51" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>24/09/2023 14:29</t>
+        </is>
+      </c>
+      <c r="L51" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>24/09/2023 14:29</t>
+        </is>
+      </c>
+      <c r="N51" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>24/09/2023 14:29</t>
+        </is>
+      </c>
+      <c r="P51" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="Q51" t="inlineStr">
+        <is>
+          <t>24/09/2023 14:29</t>
+        </is>
+      </c>
+      <c r="R51" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="S51" t="inlineStr">
+        <is>
+          <t>24/09/2023 14:29</t>
+        </is>
+      </c>
+      <c r="T51" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="U51" t="inlineStr">
+        <is>
+          <t>24/09/2023 14:29</t>
+        </is>
+      </c>
+      <c r="V51" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/netherlands/eredivisie/ajax-feyenoord/WxSagv71/</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>netherlands</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>eredivisie</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E52" s="2" t="n">
+        <v>45196.78125</v>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>PSV</t>
+        </is>
+      </c>
+      <c r="G52" t="n">
+        <v>3</v>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>G.A. Eagles</t>
+        </is>
+      </c>
+      <c r="I52" t="n">
+        <v>0</v>
+      </c>
+      <c r="J52" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>23/09/2023 19:12</t>
+        </is>
+      </c>
+      <c r="L52" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>27/09/2023 18:37</t>
+        </is>
+      </c>
+      <c r="N52" t="n">
+        <v>7.56</v>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>23/09/2023 19:12</t>
+        </is>
+      </c>
+      <c r="P52" t="n">
+        <v>9.529999999999999</v>
+      </c>
+      <c r="Q52" t="inlineStr">
+        <is>
+          <t>27/09/2023 18:44</t>
+        </is>
+      </c>
+      <c r="R52" t="n">
+        <v>11.97</v>
+      </c>
+      <c r="S52" t="inlineStr">
+        <is>
+          <t>23/09/2023 19:12</t>
+        </is>
+      </c>
+      <c r="T52" t="n">
+        <v>16.38</v>
+      </c>
+      <c r="U52" t="inlineStr">
+        <is>
+          <t>27/09/2023 18:44</t>
+        </is>
+      </c>
+      <c r="V52" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/netherlands/eredivisie/psv-g-a-eagles/nic4G49j/</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>netherlands</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>eredivisie</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E53" s="2" t="n">
+        <v>45196.83333333334</v>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Twente</t>
+        </is>
+      </c>
+      <c r="G53" t="n">
+        <v>1</v>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>Vitesse</t>
+        </is>
+      </c>
+      <c r="I53" t="n">
+        <v>0</v>
+      </c>
+      <c r="J53" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>24/09/2023 16:13</t>
+        </is>
+      </c>
+      <c r="L53" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>27/09/2023 19:56</t>
+        </is>
+      </c>
+      <c r="N53" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>24/09/2023 16:13</t>
+        </is>
+      </c>
+      <c r="P53" t="n">
+        <v>5.35</v>
+      </c>
+      <c r="Q53" t="inlineStr">
+        <is>
+          <t>27/09/2023 19:56</t>
+        </is>
+      </c>
+      <c r="R53" t="n">
+        <v>5.28</v>
+      </c>
+      <c r="S53" t="inlineStr">
+        <is>
+          <t>24/09/2023 16:13</t>
+        </is>
+      </c>
+      <c r="T53" t="n">
+        <v>9.16</v>
+      </c>
+      <c r="U53" t="inlineStr">
+        <is>
+          <t>27/09/2023 19:56</t>
+        </is>
+      </c>
+      <c r="V53" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/netherlands/eredivisie/twente-vitesse/MHXlG1EE/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
